--- a/Excel1.xlsx
+++ b/Excel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +347,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel1.xlsx
+++ b/Excel1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +17,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -375,4 +399,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>